--- a/for반복문 풀이_1.xlsx
+++ b/for반복문 풀이_1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\javaworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -342,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +351,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1473,4 +1477,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>4789800</v>
+      </c>
+      <c r="B1">
+        <v>50000</v>
+      </c>
+      <c r="C1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>5000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/for반복문 풀이_1.xlsx
+++ b/for반복문 풀이_1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +292,46 @@
   </si>
   <si>
     <t>i + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 몫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/2를 했을 때 정수값, 0안에 2가 몇번 들어 있느냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2로 나눈 나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x / 2 했을 때 x-2하고 남은 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x % 2 == 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -1548,4 +1589,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>